--- a/templates/repairQ_import.xlsx
+++ b/templates/repairQ_import.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,70 +524,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poage</t>
+          <t>Tipton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jason.Poage</t>
+          <t>Rachel.Tipton</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jason.Poage@simplymac.com</t>
+          <t>Rachel.Tipton@simplymac.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>316</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Operation Manager</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>316 Louisville:23.126.11.33</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>UT101 - Orem:regional_manager|UT102 - Fort Union:regional_manager|UT105 - St. George:regional_manager|UT106 - Foothill:regional_manager|ID401 - Idaho Falls:regional_manager|MO510 - Springfield MO:regional_manager|TX203 - Tyler:regional_manager|OR410 - Bend:regional_manager|TX200 - Lubbock:regional_manager|MT404 - Missoula:regional_manager|MT406 - Bozeman:regional_manager|UT100 - Park City:regional_manager|AR205 - Rogers:regional_manager|TN312 - Nashville:regional_manager|TN313 - Vanderbilt:regional_manager|TN314 - Chattanooga:regional_manager|TN315 - Johnson City:regional_manager|KY316 - Louisville:inventory_manager,shift_lead,technical_manager,sales_manager,regional_manager|IN305 - Ft. Wayne:regional_manager|IN301 - Evansville:regional_manager|GA702 - Athens:regional_manager|VA704 - Charlottesville:regional_manager|GA705 - Macon:regional_manager|GA706 - West Cobb:regional_manager|GA707 - Peachtree City:regional_manager|GA708 - Norcross:regional_manager|GA710 - Forsyth:regional_manager|GA711 - East Cobb:regional_manager|AL712 - Montgomery:regional_manager|GA713 - St. Simons:regional_manager|OR419 - Corvallis:regional_manager|OR420 - Eugene:regional_manager|OH308 - Cincinnati:regional_manager|TX206 - Katy:regional_manager|FL917 - Miami Warehouse:regional_manager|FL714 - Orlando:regional_manager|FL715 - Sawgrass:regional_manager|FL716 - Dolphin:regional_manager|NC317 - Asheville:regional_manager|GA717 - Gainesville:regional_manager|OR421 - Hillsboro:regional_manager|FL801 - Destin:regional_manager|TX207 - Waco:regional_manager|MO514 - Columbia:regional_manager|FL805 - Orlando UCF:regional_manager|TX208 - San Marcos:regional_manager|FL802 - Tallahassee:regional_manager|NC605 - Winston Salem:regional_manager|SC604 - Myrtle Beach:regional_manager|AL803 - Tuscaloosa:regional_manager|KS511 - Lawrence:regional_manager|SC602 - Columbia SC:regional_manager|NC603 - Wilmington:regional_manager|SC601 - Mt. Pleasant:regional_manager|KS513 - Wichita:regional_manager|FL807 - Clearwater:regional_manager|FL804 - Jacksonville:regional_manager</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dirk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tomlinson</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dirk.Tomlinson</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dirk.Tomlinson@simplymac.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Technician</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>605 Winston Salem:66.57.19.6</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NC605 - Winston Salem:technical_manager,sales_manager</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>301 Evansville:23.28.217.91</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>IN301 - Evansville:technical_manager,sales_manager</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>User</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>None</t>
         </is>

--- a/templates/repairQ_import.xlsx
+++ b/templates/repairQ_import.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,150 +521,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Rachel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tipton</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Rachel.Tipton</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Rachel.Tipton@simplymac.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Operation Manager</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>316 Louisville:23.126.11.33</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>UT101 - Orem:regional_manager|UT102 - Fort Union:regional_manager|UT105 - St. George:regional_manager|UT106 - Foothill:regional_manager|ID401 - Idaho Falls:regional_manager|MO510 - Springfield MO:regional_manager|TX203 - Tyler:regional_manager|OR410 - Bend:regional_manager|TX200 - Lubbock:regional_manager|MT404 - Missoula:regional_manager|MT406 - Bozeman:regional_manager|UT100 - Park City:regional_manager|AR205 - Rogers:regional_manager|TN312 - Nashville:regional_manager|TN313 - Vanderbilt:regional_manager|TN314 - Chattanooga:regional_manager|TN315 - Johnson City:regional_manager|KY316 - Louisville:inventory_manager,shift_lead,technical_manager,sales_manager,regional_manager|IN305 - Ft. Wayne:regional_manager|IN301 - Evansville:regional_manager|GA702 - Athens:regional_manager|VA704 - Charlottesville:regional_manager|GA705 - Macon:regional_manager|GA706 - West Cobb:regional_manager|GA707 - Peachtree City:regional_manager|GA708 - Norcross:regional_manager|GA710 - Forsyth:regional_manager|GA711 - East Cobb:regional_manager|AL712 - Montgomery:regional_manager|GA713 - St. Simons:regional_manager|OR419 - Corvallis:regional_manager|OR420 - Eugene:regional_manager|OH308 - Cincinnati:regional_manager|TX206 - Katy:regional_manager|FL917 - Miami Warehouse:regional_manager|FL714 - Orlando:regional_manager|FL715 - Sawgrass:regional_manager|FL716 - Dolphin:regional_manager|NC317 - Asheville:regional_manager|GA717 - Gainesville:regional_manager|OR421 - Hillsboro:regional_manager|FL801 - Destin:regional_manager|TX207 - Waco:regional_manager|MO514 - Columbia:regional_manager|FL805 - Orlando UCF:regional_manager|TX208 - San Marcos:regional_manager|FL802 - Tallahassee:regional_manager|NC605 - Winston Salem:regional_manager|SC604 - Myrtle Beach:regional_manager|AL803 - Tuscaloosa:regional_manager|KS511 - Lawrence:regional_manager|SC602 - Columbia SC:regional_manager|NC603 - Wilmington:regional_manager|SC601 - Mt. Pleasant:regional_manager|KS513 - Wichita:regional_manager|FL807 - Clearwater:regional_manager|FL804 - Jacksonville:regional_manager</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Dirk</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tomlinson</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dirk.Tomlinson</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Dirk.Tomlinson@simplymac.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Technician</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>301 Evansville:23.28.217.91</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>IN301 - Evansville:technical_manager,sales_manager</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
